--- a/RelatórioAcompanhamento.xlsx
+++ b/RelatórioAcompanhamento.xlsx
@@ -518,8 +518,8 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
@@ -765,12 +765,14 @@
       <c r="F17" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" s="25" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="25" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="26" t="s">
         <v>36</v>
       </c>
@@ -784,12 +786,14 @@
       <c r="F18" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="20" t="s">
         <v>37</v>
       </c>
@@ -803,7 +807,9 @@
       <c r="F19" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -822,7 +828,9 @@
       <c r="F20" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
@@ -841,12 +849,14 @@
       <c r="F21" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="28" t="s">
         <v>40</v>
       </c>
@@ -858,7 +868,9 @@
       <c r="F22" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
@@ -875,7 +887,9 @@
       <c r="F23" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -892,12 +906,14 @@
       <c r="F24" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="29" t="s">
         <v>43</v>
       </c>
@@ -909,7 +925,9 @@
       <c r="F25" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -926,7 +944,9 @@
       <c r="F26" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -943,7 +963,9 @@
       <c r="F27" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
@@ -960,7 +982,9 @@
       <c r="F28" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
@@ -977,7 +1001,9 @@
       <c r="F29" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="23" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
@@ -994,7 +1020,9 @@
       <c r="F30" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="23" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
@@ -1011,7 +1039,9 @@
       <c r="F31" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="23" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -1030,7 +1060,9 @@
       <c r="F32" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="23" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
@@ -1047,7 +1079,9 @@
       <c r="F33" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="23" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>

--- a/RelatórioAcompanhamento.xlsx
+++ b/RelatórioAcompanhamento.xlsx
@@ -441,12 +441,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -516,10 +516,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -768,11 +768,15 @@
       <c r="G17" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="H17" s="23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I17" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" s="25" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="25" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="26" t="s">
         <v>36</v>
       </c>
@@ -789,8 +793,12 @@
       <c r="G18" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="H18" s="23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="J18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,11 +818,15 @@
       <c r="G19" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="H19" s="23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I19" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="26" t="s">
         <v>38</v>
       </c>
@@ -831,8 +843,12 @@
       <c r="G20" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="H20" s="23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I20" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="J20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -852,11 +868,15 @@
       <c r="G21" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="H21" s="23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I21" s="23" t="n">
+        <v>0.9</v>
+      </c>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="28" t="s">
         <v>40</v>
       </c>
@@ -871,11 +891,15 @@
       <c r="G22" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="H22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="29" t="s">
         <v>41</v>
       </c>
@@ -890,11 +914,15 @@
       <c r="G23" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="H23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="29" t="s">
         <v>42</v>
       </c>
@@ -909,11 +937,15 @@
       <c r="G24" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="H24" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="29" t="s">
         <v>43</v>
       </c>
@@ -928,11 +960,15 @@
       <c r="G25" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="H25" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="29" t="s">
         <v>44</v>
       </c>
@@ -947,11 +983,15 @@
       <c r="G26" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="H26" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="29" t="s">
         <v>45</v>
       </c>
@@ -966,11 +1006,15 @@
       <c r="G27" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="H27" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="29" t="s">
         <v>46</v>
       </c>
@@ -985,8 +1029,12 @@
       <c r="G28" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="H28" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="J28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1004,11 +1052,15 @@
       <c r="G29" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="H29" s="23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I29" s="23" t="n">
+        <v>0.6</v>
+      </c>
       <c r="J29" s="24"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="29" t="s">
         <v>48</v>
       </c>
@@ -1023,11 +1075,15 @@
       <c r="G30" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="H30" s="23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I30" s="23" t="n">
+        <v>0.6</v>
+      </c>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="30" t="s">
         <v>49</v>
       </c>
@@ -1042,11 +1098,15 @@
       <c r="G31" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="H31" s="23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="23" t="n">
+        <v>0.6</v>
+      </c>
       <c r="J31" s="24"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="30" t="s">
         <v>50</v>
       </c>
@@ -1063,11 +1123,15 @@
       <c r="G32" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="H32" s="23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="23" t="n">
+        <v>0.8</v>
+      </c>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="30" t="s">
         <v>51</v>
       </c>
@@ -1082,10 +1146,15 @@
       <c r="G33" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="H33" s="23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="23" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J33" s="24"/>
     </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <sheetProtection sheet="true" password="80a8" objects="true" scenarios="true"/>
   <mergeCells count="9">

--- a/RelatórioAcompanhamento.xlsx
+++ b/RelatórioAcompanhamento.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
+      <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -774,9 +774,11 @@
       <c r="I17" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" s="25" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="25" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="26" t="s">
         <v>36</v>
       </c>
@@ -799,7 +801,9 @@
       <c r="I18" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="20" t="s">
@@ -824,7 +828,9 @@
       <c r="I19" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="26" t="s">
@@ -849,7 +855,9 @@
       <c r="I20" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="27" t="s">
@@ -874,9 +882,11 @@
       <c r="I21" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="28" t="s">
         <v>40</v>
       </c>
@@ -897,7 +907,9 @@
       <c r="I22" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="29" t="s">
@@ -920,7 +932,9 @@
       <c r="I23" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="29" t="s">
@@ -943,9 +957,11 @@
       <c r="I24" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="29" t="s">
         <v>43</v>
       </c>
@@ -966,7 +982,9 @@
       <c r="I25" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="29" t="s">
@@ -989,7 +1007,9 @@
       <c r="I26" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="29" t="s">
@@ -1012,7 +1032,9 @@
       <c r="I27" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="29" t="s">
@@ -1035,7 +1057,9 @@
       <c r="I28" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="29" t="s">
@@ -1058,7 +1082,9 @@
       <c r="I29" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="29" t="s">
@@ -1081,7 +1107,9 @@
       <c r="I30" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="30" t="s">
@@ -1104,7 +1132,9 @@
       <c r="I31" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="30" t="s">
@@ -1129,7 +1159,9 @@
       <c r="I32" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="30" t="s">
@@ -1152,7 +1184,9 @@
       <c r="I33" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="J33" s="24"/>
+      <c r="J33" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
